--- a/data/trans_camb/IP18A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 6,66</t>
+          <t>-13,28; 8,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 10,68</t>
+          <t>-11,14; 12,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 12,21</t>
+          <t>-23,99; 8,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 15,5</t>
+          <t>-6,08; 14,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 13,29</t>
+          <t>-7,85; 13,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 29,37</t>
+          <t>-17,99; 31,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,47</t>
+          <t>-6,83; 8,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 7,9</t>
+          <t>-7,53; 8,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 8,15</t>
+          <t>-18,76; 7,28</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,53; 48,46</t>
+          <t>-52,69; 57,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 75,98</t>
+          <t>-46,89; 82,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 94,41</t>
+          <t>-100,0; 98,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 119,39</t>
+          <t>-24,25; 109,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 100,67</t>
+          <t>-36,7; 105,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 243,09</t>
+          <t>-100,0; 233,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 59,44</t>
+          <t>-29,76; 54,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 51,91</t>
+          <t>-33,59; 55,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-87,4; 55,65</t>
+          <t>-89,09; 52,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 3,17</t>
+          <t>-5,38; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,85</t>
+          <t>-3,35; 5,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 11,95</t>
+          <t>-4,11; 12,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,11</t>
+          <t>-5,6; 4,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -0,98</t>
+          <t>-9,72; -0,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 11,87</t>
+          <t>-7,8; 11,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,46</t>
+          <t>-3,73; 2,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,06</t>
+          <t>-5,26; 0,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,42</t>
+          <t>-3,62; 8,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 19,18</t>
+          <t>-25,88; 16,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 29,47</t>
+          <t>-16,91; 34,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 68,92</t>
+          <t>-21,17; 70,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 20,26</t>
+          <t>-22,45; 21,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,94; -4,8</t>
+          <t>-38,22; -0,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 54,24</t>
+          <t>-33,02; 52,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 13,33</t>
+          <t>-16,72; 11,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 5,52</t>
+          <t>-23,79; 4,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 42,23</t>
+          <t>-17,19; 43,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 6,35</t>
+          <t>-8,66; 6,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 2,56</t>
+          <t>-11,97; 3,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 6,73</t>
+          <t>-18,18; 6,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -2,09</t>
+          <t>-17,25; -2,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 3,98</t>
+          <t>-12,09; 4,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -4,28</t>
+          <t>-25,27; -2,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 0,04</t>
+          <t>-11,71; -0,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 0,54</t>
+          <t>-10,06; 1,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,41; -3,81</t>
+          <t>-19,38; -3,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 30,47</t>
+          <t>-29,87; 34,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 14,35</t>
+          <t>-42,52; 17,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,23; 34,35</t>
+          <t>-67,43; 35,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,48; -8,56</t>
+          <t>-56,55; -8,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 17,18</t>
+          <t>-37,43; 22,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-85,02; -10,43</t>
+          <t>-84,19; -5,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 1,07</t>
+          <t>-39,82; -0,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 2,4</t>
+          <t>-34,66; 4,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,87; -14,16</t>
+          <t>-69,03; -11,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,22</t>
+          <t>-5,01; 1,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,42</t>
+          <t>-4,2; 2,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 6,34</t>
+          <t>-6,46; 5,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,14</t>
+          <t>-5,89; 1,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -0,38</t>
+          <t>-8,3; -0,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 5,33</t>
+          <t>-10,01; 4,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,53</t>
+          <t>-4,43; 0,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,08</t>
+          <t>-5,12; 0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,52</t>
+          <t>-6,89; 2,86</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 11,9</t>
+          <t>-22,95; 10,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 13,48</t>
+          <t>-19,42; 13,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 33,57</t>
+          <t>-30,83; 31,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 10,31</t>
+          <t>-24,07; 8,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -1,64</t>
+          <t>-32,29; -3,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 24,46</t>
+          <t>-41,29; 21,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 2,69</t>
+          <t>-19,2; 2,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 0,31</t>
+          <t>-22,17; 0,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 12,14</t>
+          <t>-30,7; 13,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 15,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,99; 12,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,17; 29,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,73; 7,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,66; 11,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,91; 11,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 8,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,11; 9,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,4; 9,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,83%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,77; 117,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,99; 92,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 227,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,26; 50,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,8; 78,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 90,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,45; 56,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,35; 61,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,73; 62,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>1,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 8,15</t>
+          <t>-5,95; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 12,1</t>
+          <t>-9,9; -0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 8,28</t>
+          <t>-8,66; 10,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 14,45</t>
+          <t>-5,59; 2,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 13,96</t>
+          <t>-3,31; 5,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 31,49</t>
+          <t>-5,03; 11,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 8,66</t>
+          <t>-3,9; 2,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 8,34</t>
+          <t>-4,92; 1,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 7,28</t>
+          <t>-4,74; 7,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,67%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-68,25%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>-6,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-45,23%</t>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,69; 57,57</t>
+          <t>-23,04; 17,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,89; 82,66</t>
+          <t>-39,7; -4,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 98,8</t>
+          <t>-37,28; 48,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 109,46</t>
+          <t>-25,92; 17,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 105,86</t>
+          <t>-16,22; 31,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 233,41</t>
+          <t>-24,66; 65,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 54,53</t>
+          <t>-17,66; 12,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 55,05</t>
+          <t>-22,33; 6,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-89,09; 52,23</t>
+          <t>-21,81; 40,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-10,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-16,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-12,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 2,79</t>
+          <t>-17,81; -2,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,53</t>
+          <t>-11,94; 5,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 12,13</t>
+          <t>-25,49; -4,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 4,44</t>
+          <t>-8,61; 7,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -0,41</t>
+          <t>-12,44; 2,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,48</t>
+          <t>-18,88; 6,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,18</t>
+          <t>-11,45; 0,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,81</t>
+          <t>-10,87; 1,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,57</t>
+          <t>-19,57; -3,19</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-36,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>-61,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>-4,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>-31,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-21,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,33%</t>
+          <t>-17,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>-46,61%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 16,53</t>
+          <t>-57,1; -11,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 34,05</t>
+          <t>-37,69; 22,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 70,1</t>
+          <t>-85,66; -15,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 21,68</t>
+          <t>-30,66; 36,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,22; -0,96</t>
+          <t>-42,85; 12,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 52,72</t>
+          <t>-70,03; 30,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 11,8</t>
+          <t>-38,18; 1,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 4,18</t>
+          <t>-36,54; 4,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 43,39</t>
+          <t>-70,08; -13,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-16,76</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,88</t>
+          <t>-2,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 6,71</t>
+          <t>-6,21; 1,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 3,3</t>
+          <t>-8,2; -0,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 6,98</t>
+          <t>-10,89; 3,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -2,22</t>
+          <t>-5,03; 2,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 4,98</t>
+          <t>-4,41; 2,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,27; -2,06</t>
+          <t>-6,7; 5,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,71; -0,37</t>
+          <t>-4,5; 0,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 1,01</t>
+          <t>-5,08; 0,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,38; -3,23</t>
+          <t>-7,33; 2,15</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-9,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>-18,44%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-28,9%</t>
+          <t>-17,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,9%</t>
+          <t>-6,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-60,9%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>-8,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>-11,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,39%</t>
+          <t>-12,18%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 34,2</t>
+          <t>-24,46; 7,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 17,81</t>
+          <t>-32,55; -4,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 35,58</t>
+          <t>-45,47; 14,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,55; -8,9</t>
+          <t>-22,61; 12,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 22,41</t>
+          <t>-19,55; 13,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,19; -5,8</t>
+          <t>-31,41; 28,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -0,68</t>
+          <t>-19,28; 3,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 4,17</t>
+          <t>-21,63; 0,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,03; -11,89</t>
+          <t>-32,07; 10,25</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-3,53</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 1,97</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 2,53</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 5,97</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 1,84</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -0,74</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 4,9</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 0,63</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 0,02</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 2,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-6,78%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-3,56%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-9,7%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-18,44%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-15,11%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-8,38%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-11,37%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-8,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-22,95; 10,81</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; 13,76</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-30,83; 31,72</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-24,07; 8,58</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-32,29; -3,53</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 21,18</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-19,2; 2,76</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-22,17; 0,06</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-30,7; 13,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
